--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/20/seed4/result_data_KNN.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.188</v>
+        <v>16.359</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.552000000000001</v>
+        <v>-7.15</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.678</v>
+        <v>-10.612</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.697999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -655,7 +655,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.178</v>
+        <v>-12.867</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.996</v>
+        <v>-7.959999999999999</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.312</v>
+        <v>16.16699999999999</v>
       </c>
     </row>
     <row r="16">
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.052</v>
+        <v>-12.796</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.728</v>
+        <v>-11.759</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.712</v>
+        <v>-8.1</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.246</v>
+        <v>-12.578</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -876,10 +876,10 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.114</v>
+        <v>-12.983</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.536</v>
+        <v>-7.875</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -893,10 +893,10 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.766</v>
+        <v>-12.855</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.492</v>
+        <v>-7.988999999999999</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.27</v>
+        <v>16.854</v>
       </c>
     </row>
     <row r="29">
@@ -927,10 +927,10 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-13.044</v>
+        <v>-12.74</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.394</v>
+        <v>-7.49</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>16.854</v>
+        <v>16.832</v>
       </c>
     </row>
     <row r="34">
@@ -1029,13 +1029,13 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.246</v>
+        <v>-12.383</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.554</v>
+        <v>16.451</v>
       </c>
     </row>
     <row r="36">
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.536</v>
+        <v>-12.428</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.860000000000001</v>
+        <v>-8.059999999999999</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,10 +1083,10 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.173999999999999</v>
+        <v>-7.628</v>
       </c>
       <c r="E38" t="n">
-        <v>16.61</v>
+        <v>16.697</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.544</v>
+        <v>16.962</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.92</v>
+        <v>16.799</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.422</v>
+        <v>-13.3</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.336</v>
+        <v>16.667</v>
       </c>
     </row>
     <row r="46">
@@ -1236,10 +1236,10 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.762</v>
+        <v>-7.467999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>16.526</v>
+        <v>16.593</v>
       </c>
     </row>
     <row r="48">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.752</v>
+        <v>-8.149000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>16.798</v>
+        <v>16.724</v>
       </c>
     </row>
     <row r="52">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.894</v>
+        <v>-7.600999999999999</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.516</v>
+        <v>16.335</v>
       </c>
     </row>
     <row r="55">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.984</v>
+        <v>-13.44</v>
       </c>
       <c r="D55" t="n">
         <v>-8.326000000000001</v>
@@ -1403,13 +1403,13 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.174</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.556</v>
+        <v>16.569</v>
       </c>
     </row>
     <row r="58">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.104</v>
+        <v>16.282</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.884</v>
+        <v>17.458</v>
       </c>
     </row>
     <row r="64">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>16.842</v>
+        <v>17.074</v>
       </c>
     </row>
     <row r="68">
@@ -1607,10 +1607,10 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.044</v>
+        <v>-11.04</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.203999999999999</v>
+        <v>-7.178</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.512</v>
+        <v>-7.434</v>
       </c>
       <c r="E70" t="n">
-        <v>17.572</v>
+        <v>17.421</v>
       </c>
     </row>
     <row r="71">
@@ -1726,10 +1726,10 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.368</v>
+        <v>-13.42</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.178</v>
+        <v>-7.453999999999999</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.746</v>
+        <v>-12.577</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1814,10 +1814,10 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-8.888</v>
+        <v>-8.403</v>
       </c>
       <c r="E81" t="n">
-        <v>15.982</v>
+        <v>16.602</v>
       </c>
     </row>
     <row r="82">
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.122</v>
+        <v>-11.884</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1845,10 +1845,10 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.856</v>
+        <v>-13.184</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.782</v>
+        <v>-8.472999999999999</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.672</v>
+        <v>16.488</v>
       </c>
     </row>
     <row r="89">
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.408</v>
+        <v>-11.704</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.415999999999999</v>
+        <v>-7.455999999999999</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.694</v>
+        <v>16.482</v>
       </c>
     </row>
     <row r="97">
@@ -2083,7 +2083,7 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.482</v>
+        <v>-12.35</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.868</v>
+        <v>16.632</v>
       </c>
     </row>
     <row r="100">
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.460000000000001</v>
+        <v>-8.221</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.347999999999999</v>
+        <v>-7.764</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
